--- a/conf/type/Item.xlsx
+++ b/conf/type/Item.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\怪物\表格资源\conf\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\怪物\表格资源\conf\type\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ItemData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +146,10 @@
   </si>
   <si>
     <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +551,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -614,22 +614,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -637,16 +637,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -658,16 +658,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -679,27 +679,27 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -715,19 +715,19 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -738,13 +738,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
@@ -759,13 +759,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>

--- a/conf/type/Item.xlsx
+++ b/conf/type/Item.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>种类</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +555,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -606,7 +610,9 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
